--- a/converter/list.xlsx
+++ b/converter/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dboren\Documents\GitHub\kuchipatchi_oop\converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7597B9-8C37-4464-A3C7-B20DF9943825}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842FE7AD-E446-41F8-99C5-63230F4C24C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4209BB5F-DFFC-4BD3-882D-F74813722D2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4209BB5F-DFFC-4BD3-882D-F74813722D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7F155D-86C4-46FF-A29E-E2A9715FD5C4}">
   <dimension ref="A1:V158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
